--- a/2025-03-03_4o-mini_feedback_sheets/overall_gen/Anxiety_gen_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_gen/Anxiety_gen_overall.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Patient reports persistent feelings of worry and fear.</t>
+          <t>Persistent worry about multiple areas of life</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>These feelings are core symptoms of anxiety disorders and are commonly reported by patients with anxiety.</t>
+          <t>This is a hallmark symptom of generalized anxiety disorder, indicating a high likelihood of anxiety.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Patient reports no significant life stressors or changes.</t>
+          <t>Absence of worry or fear</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of stressors that typically trigger anxiety symptoms suggests that anxiety may not be present.</t>
+          <t>A lack of worry or fear is inconsistent with anxiety disorders, which are characterized by these symptoms.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Patient experiences physical symptoms such as palpitations and sweating during stressful situations.</t>
+          <t>Episodes of intense fear or discomfort</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Physical manifestations of anxiety, such as palpitations, are frequently observed in individuals with anxiety disorders.</t>
+          <t>Such episodes are characteristic of panic attacks, which are strongly associated with anxiety disorders.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Patient has a stable mood and reports feeling generally content.</t>
+          <t>Calm demeanor in stressful situations</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A stable mood and contentment are inconsistent with the pervasive worry characteristic of anxiety disorders.</t>
+          <t>Remaining calm in situations that typically provoke anxiety suggests the absence of an anxiety disorder.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Patient describes avoidance of certain situations due to fear of anxiety symptoms.</t>
+          <t>Avoidance of situations due to fear</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Avoidance behavior is a hallmark of anxiety disorders, indicating the presence of anxiety-related fears.</t>
+          <t>Avoidance behavior is common in anxiety disorders, particularly in social anxiety disorder and agoraphobia.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Patient engages in regular social activities without fear or discomfort.</t>
+          <t>No history of panic attacks</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The ability to participate in social activities without anxiety indicates a lack of anxiety disorder symptoms.</t>
+          <t>Panic attacks are a common feature of many anxiety disorders; their absence may suggest a different diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Patient reports difficulty concentrating due to excessive worry.</t>
+          <t>Restlessness or feeling on edge</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cognitive impairment, such as difficulty concentrating, is a common symptom associated with anxiety disorders.</t>
+          <t>This is a common symptom in anxiety disorders, reflecting heightened arousal and tension.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Patient has no history of anxiety disorders in family.</t>
+          <t>Stable mood without fluctuations</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A lack of familial history of anxiety may suggest a lower likelihood of developing anxiety disorders.</t>
+          <t>Anxiety disorders often involve mood instability; a stable mood may indicate another condition.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Patient has a history of anxiety symptoms triggered by specific stressors.</t>
+          <t>Difficulty concentrating</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The presence of identifiable triggers for anxiety symptoms supports the diagnosis of an anxiety disorder.</t>
+          <t>Often reported in anxiety disorders due to excessive worry and mental preoccupation.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Patient reports good sleep quality and no insomnia.</t>
+          <t>No avoidance behavior</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Good sleep quality is often disrupted in individuals with anxiety, making this finding less consistent with anxiety disorders.</t>
+          <t>Avoidance is a key feature of anxiety disorders; its absence suggests anxiety may not be present.</t>
         </is>
       </c>
     </row>
@@ -613,44 +613,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of previous anxiety disorders</t>
+          <t>History of generalized anxiety disorder (GAD)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A past diagnosis of anxiety disorders significantly increases the likelihood of current anxiety due to the chronic nature of anxiety disorders.</t>
+          <t>A previous diagnosis of GAD strongly supports the presence of anxiety as it indicates a chronic condition.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No history of mental health disorders</t>
+          <t>No history of psychiatric disorders</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A lack of any previous mental health issues suggests a lower likelihood of developing anxiety disorders.</t>
+          <t>Absence of any psychiatric history reduces the likelihood of an anxiety disorder.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Current use of anxiolytic medications</t>
+          <t>Use of anxiolytic medications</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The use of medications specifically prescribed for anxiety, such as benzodiazepines or SSRIs, strongly indicates the presence of anxiety symptoms.</t>
+          <t>Current use of medications such as benzodiazepines or SSRIs for anxiety management suggests ongoing anxiety symptoms.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No current medications for mental health</t>
+          <t>Long-term use of beta-blockers for hypertension without anxiety symptoms</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Not taking any medications related to mental health indicates that there may not be any current anxiety symptoms requiring treatment.</t>
+          <t>Beta-blockers are sometimes used for anxiety, but if used solely for hypertension without anxiety symptoms, it suggests no anxiety disorder.</t>
         </is>
       </c>
     </row>
@@ -662,61 +662,61 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A history of panic attacks is a strong indicator of anxiety disorders, particularly panic disorder, which is a subtype of anxiety.</t>
+          <t>A history of panic attacks is often associated with anxiety disorders, indicating a predisposition to anxiety.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>History of successful coping strategies without therapy</t>
+          <t>History of effective treatment for anxiety with no recurrence</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Having effective coping mechanisms that do not involve therapy or medication suggests resilience against anxiety.</t>
+          <t>Successful treatment of past anxiety with no recurrence suggests current absence of anxiety.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Previous treatment for generalized anxiety disorder (GAD)</t>
+          <t>Previous cognitive behavioral therapy (CBT)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Having been treated for GAD in the past suggests a recurring issue with anxiety, making it more likely to be present currently.</t>
+          <t>Engagement in CBT for anxiety management suggests a history of anxiety issues.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No significant life stressors reported</t>
+          <t>History of depression without anxiety symptoms</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of stressors that typically trigger anxiety suggests a lower likelihood of experiencing anxiety symptoms.</t>
+          <t>Depression can occur without anxiety, and a history of depression alone may indicate the absence of anxiety.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Family history of anxiety disorders</t>
+          <t>History of social anxiety disorder</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A family history of anxiety disorders increases the risk of developing anxiety, indicating a genetic or environmental predisposition.</t>
+          <t>A past diagnosis of social anxiety disorder indicates a specific type of anxiety disorder.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Previous surgical history with no psychological impact</t>
+          <t>No history of medication for anxiety</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Having undergone surgeries without subsequent psychological issues indicates a lower risk for developing anxiety related to health concerns.</t>
+          <t>Absence of any medication history for anxiety management suggests no significant anxiety disorder.</t>
         </is>
       </c>
     </row>
@@ -769,105 +769,105 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A genetic predisposition to anxiety disorders increases the likelihood of developing anxiety.</t>
+          <t>A family history of anxiety disorders increases the likelihood of anxiety due to genetic predisposition.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Strong social support network</t>
+          <t>Strong family history of resilience to stress</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Having a robust support system can mitigate anxiety symptoms and reduce the likelihood of developing anxiety disorders.</t>
+          <t>A family history of resilience to stress may indicate a lower genetic predisposition to anxiety.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>High levels of stress in personal or professional life</t>
+          <t>High-stress occupation</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chronic stress is a significant risk factor for the development of anxiety disorders.</t>
+          <t>Occupations with high stress levels are associated with a higher incidence of anxiety disorders.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engagement in regular physical activity</t>
+          <t>Stable and supportive family environment</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Regular exercise is known to reduce anxiety symptoms and improve overall mental health.</t>
+          <t>A stable and supportive family environment can provide emotional resources that protect against anxiety.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Social isolation or lack of support systems</t>
+          <t>History of substance abuse</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Limited social support can exacerbate feelings of anxiety and increase vulnerability to anxiety disorders.</t>
+          <t>Substance abuse can be both a coping mechanism for and a contributor to anxiety disorders.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>History of effective coping strategies for stress</t>
+          <t>Active participation in stress-reducing activities</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Utilizing effective coping mechanisms can prevent the onset of anxiety disorders.</t>
+          <t>Engagement in activities like yoga or meditation can reduce stress and lower the risk of anxiety.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of substance use or abuse</t>
+          <t>Lack of social support</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Substance use can lead to or worsen anxiety symptoms, making it a relevant factor in the diagnosis.</t>
+          <t>Individuals with limited social support are more prone to developing anxiety due to isolation and lack of emotional resources.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Stable and fulfilling relationships</t>
+          <t>No history of substance abuse</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Healthy relationships can provide emotional stability and reduce the risk of anxiety.</t>
+          <t>Absence of substance abuse reduces the risk factors associated with anxiety disorders.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Participation in high-stress activities (e.g., competitive sports, high-pressure jobs)</t>
+          <t>History of trauma or abuse</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Engagement in high-stress environments can trigger or worsen anxiety symptoms.</t>
+          <t>Experiencing trauma or abuse is a significant risk factor for developing anxiety disorders.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No family history of mental health disorders</t>
+          <t>Strong social network</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Absence of a genetic predisposition decreases the likelihood of developing anxiety disorders.</t>
+          <t>Having a strong social network provides emotional support and reduces the likelihood of developing anxiety.</t>
         </is>
       </c>
     </row>
@@ -915,12 +915,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Increased heart rate (tachycardia)</t>
+          <t>Increased heart rate</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tachycardia is commonly observed in patients with anxiety due to the body's fight-or-flight response, making it a strong indicator of anxiety.</t>
+          <t>Tachycardia is commonly observed in patients experiencing anxiety due to heightened sympathetic nervous system activity.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -930,95 +930,95 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A normal heart rate suggests that the individual is not experiencing the physiological effects of anxiety, making it less likely that anxiety is present.</t>
+          <t>A normal heart rate is less consistent with anxiety, which often causes tachycardia.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Elevated blood pressure</t>
+          <t>Increased respiratory rate</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Elevated blood pressure can occur in anxious individuals as a physiological response to stress, supporting the diagnosis of anxiety.</t>
+          <t>Hyperventilation or increased respiratory rate is often seen in anxiety as a physiological response to stress.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Normal blood pressure</t>
+          <t>Normal respiratory rate</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Normal blood pressure readings indicate that there is no significant stress response, which is often associated with anxiety.</t>
+          <t>A normal respiratory rate suggests the absence of hyperventilation, which is common in anxiety.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tremors or shaking</t>
+          <t>Sweating</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tremors are a physical manifestation of anxiety, often resulting from heightened sympathetic nervous system activity.</t>
+          <t>Excessive sweating can occur during anxiety episodes due to autonomic nervous system activation.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No signs of tremors</t>
+          <t>Absence of sweating</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of tremors suggests that the individual is not experiencing the physical manifestations of anxiety.</t>
+          <t>Lack of excessive sweating may indicate the absence of autonomic arousal typical in anxiety.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Diaphoresis (excessive sweating)</t>
+          <t>Tremors</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Diaphoresis is frequently seen in anxiety disorders as a result of increased sympathetic arousal, indicating the presence of anxiety.</t>
+          <t>Fine tremors can be a physical manifestation of anxiety, reflecting increased adrenergic activity.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Absence of diaphoresis</t>
+          <t>No tremors</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Lack of excessive sweating indicates that the sympathetic nervous system is not activated, which is often the case in anxiety.</t>
+          <t>The absence of tremors suggests a lack of adrenergic overactivity, which is often seen in anxiety.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Muscle tension</t>
+          <t>Palpitations</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle tension is a common physical symptom associated with anxiety, reflecting the body's response to stress.</t>
+          <t>Patients with anxiety often report palpitations, which are sensations of a racing or pounding heart.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Relaxed muscle tone</t>
+          <t>No palpitations</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Relaxed muscle tone suggests that the individual is not experiencing muscle tension, a common symptom of anxiety.</t>
+          <t>The absence of palpitations is less consistent with anxiety, where patients often feel a racing heart.</t>
         </is>
       </c>
     </row>
@@ -1066,110 +1066,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Elevated cortisol levels</t>
+          <t>Normal thyroid function tests</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cortisol is often elevated in individuals with anxiety disorders due to the body's stress response.</t>
+          <t>Normal thyroid function tests can support anxiety as they rule out hyperthyroidism, which can mimic anxiety symptoms.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal thyroid function tests</t>
+          <t>Abnormal thyroid function tests</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal thyroid function can indicate that anxiety symptoms are not due to hyperthyroidism, which can mimic anxiety.</t>
+          <t>Abnormal thyroid function tests, such as hyperthyroidism, can cause symptoms similar to anxiety, suggesting an alternative diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Increased heart rate on ECG</t>
+          <t>Normal ECG</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tachycardia is a common physiological response in anxiety, often reflected in ECG readings.</t>
+          <t>A normal ECG can support anxiety as it rules out cardiac causes of palpitations, which are common in anxiety.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Negative results for substance use screening</t>
+          <t>Abnormal ECG</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Negative results for substances that can induce anxiety symptoms suggest that anxiety is not present.</t>
+          <t>An abnormal ECG may indicate a cardiac issue that could explain symptoms like palpitations, suggesting an alternative to anxiety.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hyperventilation observed in pulmonary function tests</t>
+          <t>Negative drug screen</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hyperventilation is frequently seen in anxiety disorders, leading to abnormal pulmonary function test results.</t>
+          <t>A negative drug screen can support anxiety by ruling out substance-induced anxiety symptoms.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal complete blood count (CBC)</t>
+          <t>Positive drug screen</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A normal CBC can rule out anemia or infection, which can cause symptoms similar to anxiety.</t>
+          <t>A positive drug screen for stimulants or other substances can indicate substance-induced anxiety, suggesting an alternative cause.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Elevated levels of norepinephrine</t>
+          <t>Normal complete blood count (CBC)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Norepinephrine is often elevated in anxiety, contributing to the fight-or-flight response.</t>
+          <t>A normal CBC can support anxiety by ruling out anemia or infection, which can cause fatigue and mimic anxiety.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Negative results for vitamin deficiencies (e.g., B12, D)</t>
+          <t>Low hemoglobin in CBC</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Deficiencies in certain vitamins can lead to mood disturbances; negative results suggest these are not contributing to anxiety.</t>
+          <t>Low hemoglobin levels can indicate anemia, which can cause fatigue and mimic anxiety symptoms, suggesting an alternative diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Abnormalities in brain imaging (e.g., increased amygdala activity)</t>
+          <t>Normal metabolic panel</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Imaging studies may show increased activity in the amygdala, which is associated with anxiety responses.</t>
+          <t>A normal metabolic panel can support anxiety by ruling out electrolyte imbalances or metabolic issues that could cause anxiety-like symptoms.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Normal imaging of the brain (e.g., MRI)</t>
+          <t>Electrolyte imbalance in metabolic panel</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Normal brain imaging can indicate that there are no structural abnormalities contributing to anxiety symptoms.</t>
+          <t>Electrolyte imbalances can cause symptoms like confusion and palpitations, suggesting an alternative cause to anxiety.</t>
         </is>
       </c>
     </row>
